--- a/StructureDefinition-ext-R5-DetectedIssue.mitigation.xlsx
+++ b/StructureDefinition-ext-R5-DetectedIssue.mitigation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes describing steps taken to resolve the issue or other circumstances that mitigate the risk associated with the issue; e.g. 'added concurrent therapy', 'prior therapy documented', etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-detectedissue-mitigation-action-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -495,7 +486,7 @@
     <t>Extension.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -891,8 +882,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="149.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1812,43 +1803,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1856,13 +1847,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1887,16 +1878,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1965,7 +1956,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2068,7 +2059,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2173,7 +2164,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2216,7 +2207,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2278,7 +2269,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2304,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2363,7 +2354,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2375,7 +2366,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2383,13 +2374,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2414,14 +2405,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2490,7 +2481,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2593,7 +2584,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2698,7 +2689,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2741,7 +2732,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2803,7 +2794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2829,13 +2820,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2886,7 +2877,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2898,7 +2889,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -2906,13 +2897,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2937,14 +2928,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3013,7 +3004,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3116,7 +3107,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3221,7 +3212,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3264,7 +3255,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3326,7 +3317,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3352,13 +3343,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3409,7 +3400,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3421,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3534,10 +3525,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3560,13 +3551,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3617,7 +3608,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3629,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>121</v>
